--- a/Reports Folder/Staff Performance Overview/Merged Reports SPO/merged_spo_08-18-23.xlsx
+++ b/Reports Folder/Staff Performance Overview/Merged Reports SPO/merged_spo_08-18-23.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
@@ -691,10 +691,10 @@
         <v>2.5</v>
       </c>
       <c r="F4" t="n">
-        <v>1424.5</v>
+        <v>1541.8</v>
       </c>
       <c r="G4" t="n">
-        <v>1534.92</v>
+        <v>1661.24</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -709,41 +709,41 @@
         <v>53.34</v>
       </c>
       <c r="L4" t="n">
-        <v>1474</v>
+        <v>1591.3</v>
       </c>
       <c r="M4" t="n">
-        <v>1588.26</v>
+        <v>1714.58</v>
       </c>
       <c r="N4" t="n">
-        <v>70.19047619047619</v>
+        <v>69.18695652173913</v>
       </c>
       <c r="O4" t="n">
-        <v>75.63142857142857</v>
+        <v>74.54695652173913</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alicia Gallegos (A)</t>
+          <t>Aminah Avalos</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="F5" t="n">
-        <v>117.3</v>
+        <v>1608.5</v>
       </c>
       <c r="G5" t="n">
-        <v>126.32</v>
+        <v>1732.96</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -758,41 +758,41 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>117.3</v>
+        <v>1608.5</v>
       </c>
       <c r="M5" t="n">
-        <v>126.32</v>
+        <v>1732.96</v>
       </c>
       <c r="N5" t="n">
-        <v>58.65</v>
+        <v>76.5952380952381</v>
       </c>
       <c r="O5" t="n">
-        <v>63.16</v>
+        <v>82.52190476190476</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Aminah Avalos</t>
+          <t>Brook Accomando</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="F6" t="n">
-        <v>1608.5</v>
+        <v>591</v>
       </c>
       <c r="G6" t="n">
-        <v>1732.96</v>
+        <v>636.8</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -807,41 +807,41 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1608.5</v>
+        <v>591</v>
       </c>
       <c r="M6" t="n">
-        <v>1732.96</v>
+        <v>636.8</v>
       </c>
       <c r="N6" t="n">
-        <v>76.5952380952381</v>
+        <v>65.66666666666667</v>
       </c>
       <c r="O6" t="n">
-        <v>82.52190476190476</v>
+        <v>70.75555555555555</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Brook Accomando</t>
+          <t>Chrissy Cummings</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="F7" t="n">
-        <v>566</v>
+        <v>1667</v>
       </c>
       <c r="G7" t="n">
-        <v>609.88</v>
+        <v>1796.19</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -856,41 +856,41 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>566</v>
+        <v>1667</v>
       </c>
       <c r="M7" t="n">
-        <v>609.88</v>
+        <v>1796.19</v>
       </c>
       <c r="N7" t="n">
-        <v>70.75</v>
+        <v>72.47826086956522</v>
       </c>
       <c r="O7" t="n">
-        <v>76.235</v>
+        <v>78.09521739130435</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brook Accomando (A)</t>
+          <t>Danielle Mai</t>
         </is>
       </c>
       <c r="B8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13</v>
+      </c>
+      <c r="D8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="F8" t="n">
-        <v>25</v>
+        <v>917</v>
       </c>
       <c r="G8" t="n">
-        <v>26.92</v>
+        <v>987.95</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -905,41 +905,41 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>25</v>
+        <v>917</v>
       </c>
       <c r="M8" t="n">
-        <v>26.92</v>
+        <v>987.95</v>
       </c>
       <c r="N8" t="n">
-        <v>25</v>
+        <v>61.13333333333333</v>
       </c>
       <c r="O8" t="n">
-        <v>26.92</v>
+        <v>65.86333333333333</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Chrissy Cummings</t>
+          <t>Gabriella Marquez</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1667</v>
+        <v>1371.8</v>
       </c>
       <c r="G9" t="n">
-        <v>1796.19</v>
+        <v>1477.24</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -954,41 +954,41 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1667</v>
+        <v>1371.8</v>
       </c>
       <c r="M9" t="n">
-        <v>1796.19</v>
+        <v>1477.24</v>
       </c>
       <c r="N9" t="n">
-        <v>72.47826086956522</v>
+        <v>65.32380952380952</v>
       </c>
       <c r="O9" t="n">
-        <v>78.09521739130435</v>
+        <v>70.34476190476191</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Danielle Mai</t>
+          <t>Izzy Kruis</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="F10" t="n">
-        <v>917</v>
+        <v>1815</v>
       </c>
       <c r="G10" t="n">
-        <v>987.95</v>
+        <v>1955.68</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1003,41 +1003,41 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>917</v>
+        <v>1815</v>
       </c>
       <c r="M10" t="n">
-        <v>987.95</v>
+        <v>1955.68</v>
       </c>
       <c r="N10" t="n">
-        <v>61.13333333333333</v>
+        <v>75.625</v>
       </c>
       <c r="O10" t="n">
-        <v>65.86333333333333</v>
+        <v>81.48666666666666</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Gabriella Marquez</t>
+          <t>Jasmine Gomez</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="F11" t="n">
-        <v>1371.8</v>
+        <v>494.8</v>
       </c>
       <c r="G11" t="n">
-        <v>1477.24</v>
+        <v>532.83</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1052,41 +1052,41 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1371.8</v>
+        <v>494.8</v>
       </c>
       <c r="M11" t="n">
-        <v>1477.24</v>
+        <v>532.83</v>
       </c>
       <c r="N11" t="n">
-        <v>65.32380952380952</v>
+        <v>49.48</v>
       </c>
       <c r="O11" t="n">
-        <v>70.34476190476191</v>
+        <v>53.283</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Izzy Kruis</t>
+          <t>Jasmine Saiz</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C12" t="n">
         <v>7</v>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E12" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="F12" t="n">
-        <v>1815</v>
+        <v>2946.5</v>
       </c>
       <c r="G12" t="n">
-        <v>1955.68</v>
+        <v>3174.91</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1101,41 +1101,41 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1815</v>
+        <v>2946.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1955.68</v>
+        <v>3174.91</v>
       </c>
       <c r="N12" t="n">
-        <v>75.625</v>
+        <v>73.66249999999999</v>
       </c>
       <c r="O12" t="n">
-        <v>81.48666666666666</v>
+        <v>79.37275</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jasmine Gomez</t>
+          <t xml:space="preserve">Justyne Martinez </t>
         </is>
       </c>
       <c r="B13" t="n">
+        <v>26</v>
+      </c>
+      <c r="C13" t="n">
         <v>10</v>
       </c>
-      <c r="C13" t="n">
-        <v>6</v>
-      </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="F13" t="n">
-        <v>494.8</v>
+        <v>1708</v>
       </c>
       <c r="G13" t="n">
-        <v>532.83</v>
+        <v>1839.29</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1144,47 +1144,47 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>10.77</v>
       </c>
       <c r="L13" t="n">
-        <v>494.8</v>
+        <v>1718</v>
       </c>
       <c r="M13" t="n">
-        <v>532.83</v>
+        <v>1850.06</v>
       </c>
       <c r="N13" t="n">
-        <v>49.48</v>
+        <v>66.07692307692308</v>
       </c>
       <c r="O13" t="n">
-        <v>53.283</v>
+        <v>71.15615384615384</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jasmine Saiz</t>
+          <t>Karen Trevizo</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="F14" t="n">
-        <v>2946.5</v>
+        <v>505</v>
       </c>
       <c r="G14" t="n">
-        <v>3174.91</v>
+        <v>544.0599999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1193,47 +1193,47 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>27.47</v>
       </c>
       <c r="L14" t="n">
-        <v>2946.5</v>
+        <v>530.5</v>
       </c>
       <c r="M14" t="n">
-        <v>3174.91</v>
+        <v>571.53</v>
       </c>
       <c r="N14" t="n">
-        <v>73.66249999999999</v>
+        <v>75.78571428571429</v>
       </c>
       <c r="O14" t="n">
-        <v>79.37275</v>
+        <v>81.64714285714285</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Justyne Martinez </t>
+          <t>Krisdee Martinez</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E15" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="F15" t="n">
-        <v>1708</v>
+        <v>2517</v>
       </c>
       <c r="G15" t="n">
-        <v>1839.29</v>
+        <v>2712.11</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1242,47 +1242,47 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>10.77</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1718</v>
+        <v>2517</v>
       </c>
       <c r="M15" t="n">
-        <v>1850.06</v>
+        <v>2712.11</v>
       </c>
       <c r="N15" t="n">
-        <v>66.07692307692308</v>
+        <v>74.02941176470588</v>
       </c>
       <c r="O15" t="n">
-        <v>71.15615384615384</v>
+        <v>79.76794117647059</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Karen Trevizo</t>
+          <t>Maggie  Farrell</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="F16" t="n">
-        <v>505</v>
+        <v>1684.5</v>
       </c>
       <c r="G16" t="n">
-        <v>544.0599999999999</v>
+        <v>1813.98</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1291,47 +1291,47 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.5</v>
+        <v>15.5</v>
       </c>
       <c r="K16" t="n">
-        <v>27.47</v>
+        <v>16.69</v>
       </c>
       <c r="L16" t="n">
-        <v>530.5</v>
+        <v>1700</v>
       </c>
       <c r="M16" t="n">
-        <v>571.53</v>
+        <v>1830.67</v>
       </c>
       <c r="N16" t="n">
-        <v>75.78571428571429</v>
+        <v>68</v>
       </c>
       <c r="O16" t="n">
-        <v>81.64714285714285</v>
+        <v>73.2268</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Krisdee Martinez</t>
+          <t>Makayla Baca</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" t="n">
+        <v>6</v>
+      </c>
+      <c r="D17" t="n">
         <v>8</v>
-      </c>
-      <c r="D17" t="n">
-        <v>13</v>
       </c>
       <c r="E17" t="n">
         <v>2.5</v>
       </c>
       <c r="F17" t="n">
-        <v>2517</v>
+        <v>2463</v>
       </c>
       <c r="G17" t="n">
-        <v>2712.11</v>
+        <v>2652.26</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1346,41 +1346,41 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>2517</v>
+        <v>2463</v>
       </c>
       <c r="M17" t="n">
-        <v>2712.11</v>
+        <v>2652.26</v>
       </c>
       <c r="N17" t="n">
-        <v>74.02941176470588</v>
+        <v>76.96875</v>
       </c>
       <c r="O17" t="n">
-        <v>79.76794117647059</v>
+        <v>82.88312500000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Maggie  Farrell</t>
+          <t>Matthew Young</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>2.2</v>
+        <v>4.300000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>1684.5</v>
+        <v>1106</v>
       </c>
       <c r="G18" t="n">
-        <v>1813.98</v>
+        <v>1191.55</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1389,47 +1389,47 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>16.69</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1700</v>
+        <v>1106</v>
       </c>
       <c r="M18" t="n">
-        <v>1830.67</v>
+        <v>1191.55</v>
       </c>
       <c r="N18" t="n">
-        <v>68</v>
+        <v>65.05882352941177</v>
       </c>
       <c r="O18" t="n">
-        <v>73.2268</v>
+        <v>70.09117647058824</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Makayla Baca</t>
+          <t>Nakqi Smith</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2463</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2652.26</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1438,47 +1438,47 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>43.07</v>
       </c>
       <c r="L19" t="n">
-        <v>2463</v>
+        <v>40</v>
       </c>
       <c r="M19" t="n">
-        <v>2652.26</v>
+        <v>43.07</v>
       </c>
       <c r="N19" t="n">
-        <v>76.96875</v>
+        <v>40</v>
       </c>
       <c r="O19" t="n">
-        <v>82.88312500000001</v>
+        <v>43.07</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Matthew Young</t>
+          <t>Vy Torino</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E20" t="n">
-        <v>4.300000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="F20" t="n">
-        <v>1106</v>
+        <v>2849.5</v>
       </c>
       <c r="G20" t="n">
-        <v>1191.55</v>
+        <v>3068.51</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1487,119 +1487,21 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>51.68</v>
       </c>
       <c r="L20" t="n">
-        <v>1106</v>
+        <v>2897.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1191.55</v>
+        <v>3120.19</v>
       </c>
       <c r="N20" t="n">
-        <v>65.05882352941177</v>
+        <v>80.48611111111111</v>
       </c>
       <c r="O20" t="n">
-        <v>70.09117647058824</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Nakqi Smith</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>40</v>
-      </c>
-      <c r="K21" t="n">
-        <v>43.07</v>
-      </c>
-      <c r="L21" t="n">
-        <v>40</v>
-      </c>
-      <c r="M21" t="n">
-        <v>43.07</v>
-      </c>
-      <c r="N21" t="n">
-        <v>40</v>
-      </c>
-      <c r="O21" t="n">
-        <v>43.07</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Vy Torino</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>36</v>
-      </c>
-      <c r="C22" t="n">
-        <v>14</v>
-      </c>
-      <c r="D22" t="n">
-        <v>14</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="F22" t="n">
-        <v>2849.5</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3068.51</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>48</v>
-      </c>
-      <c r="K22" t="n">
-        <v>51.68</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2897.5</v>
-      </c>
-      <c r="M22" t="n">
-        <v>3120.19</v>
-      </c>
-      <c r="N22" t="n">
-        <v>80.48611111111111</v>
-      </c>
-      <c r="O22" t="n">
         <v>86.67194444444445</v>
       </c>
     </row>
